--- a/CashFlow/JNJ_cashflow.xlsx
+++ b/CashFlow/JNJ_cashflow.xlsx
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>7378000000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>7231000000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>-1496000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>-1162000000.0</v>
@@ -634,10 +630,8 @@
           <t>Accounts Receivable Change</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>-31000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>774000000.0</v>
@@ -763,10 +757,8 @@
           <t>Change in inventories</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>27566000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>36970000000.0</v>
@@ -892,10 +884,8 @@
           <t>Change in payables and accrued liability</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>28642000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>35866000000.0</v>
@@ -1021,10 +1011,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>-1282000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>-2960000000.0</v>
@@ -1150,10 +1138,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>24252000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>23536000000.0</v>
@@ -1279,10 +1265,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>-2508000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>-3042000000.0</v>
@@ -1543,10 +1527,8 @@
           <t>Long-Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>-9193000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>-8952000000.0</v>
@@ -1672,10 +1654,8 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>-2559000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>-2135000000.0</v>
@@ -1801,10 +1781,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>-20429000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>-20825000000.0</v>
@@ -1930,10 +1908,8 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>5662000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>7095000000.0</v>
@@ -2059,10 +2035,8 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-1930000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-2107000000.0</v>
@@ -2188,10 +2162,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-10635000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-10481000000.0</v>
@@ -2317,10 +2289,8 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>702000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-585000000.0</v>
@@ -2470,10 +2440,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-6930000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-6120000000.0</v>
@@ -2599,10 +2567,8 @@
           <t>Exchange Rate Adjustment</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>248000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>89000000.0</v>
@@ -2728,10 +2694,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>-2859000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>-3320000000.0</v>
@@ -2857,10 +2821,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>13985000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>17305000000.0</v>
@@ -2986,10 +2948,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>11126000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>13985000000.0</v>
@@ -3115,10 +3075,8 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>1049000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1005000000.0</v>
@@ -3245,7 +3203,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-7976000000.0</v>
+        <v>-10635000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-10481000000.0</v>
@@ -3371,10 +3329,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>3255000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2753000000.0</v>
@@ -3500,10 +3456,8 @@
           <t>Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>-9193000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-8952000000.0</v>
@@ -3629,10 +3583,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>-1930000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>-2107000000.0</v>
